--- a/src/test/resources/excel/CustomerSuite.xlsx
+++ b/src/test/resources/excel/CustomerSuite.xlsx
@@ -403,7 +403,7 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B2" sqref="B2:B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
